--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R723d7fab102a407e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R37df4b245ea644d3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8c703f595b504b85"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41bfd3f0e0224b62"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6ec24c3a2b54c30"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0df009990e848ee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R319ed8f1cb2c4b11"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1573fcdd9aa74d76"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b6593e047234a79"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5495d1ce15cf40e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R37df4b245ea644d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rae15f0343c244a4d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41bfd3f0e0224b62"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf640b841f89c43e0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0df009990e848ee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e38903668544cdc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1573fcdd9aa74d76"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R965c8ce5a70c4a1b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5495d1ce15cf40e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R338a0b5b053841ff"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rae15f0343c244a4d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R1dfda18f31554384"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf640b841f89c43e0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ad1f360b0124f47"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e38903668544cdc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R91d92c53cafc4ce6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R965c8ce5a70c4a1b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R687f90623d6d49e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R338a0b5b053841ff"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3611852ab58441c2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R1dfda18f31554384"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R4db52aee20a2422a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ad1f360b0124f47"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5edf36f38c124e4e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R91d92c53cafc4ce6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde8b247cb889443c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R687f90623d6d49e1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R332d04f4e3cf46ee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3611852ab58441c2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra47c982a8b2a466f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R4db52aee20a2422a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R9bd18b31ab81445f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5edf36f38c124e4e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc2375b2e98049e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde8b247cb889443c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5233adc776234c35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R332d04f4e3cf46ee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec498996905f4305"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra47c982a8b2a466f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8755e5c8fea4b7f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R9bd18b31ab81445f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Radb3200337e44e3a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc2375b2e98049e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67bed4c9b4ca440f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5233adc776234c35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc0ce9bc1f6454b2f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec498996905f4305"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd42ef6151e884f64"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8755e5c8fea4b7f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0c89794c6554809"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Radb3200337e44e3a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rfcdb220720894bde"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67bed4c9b4ca440f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2327773a2194910"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc0ce9bc1f6454b2f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5eeb42e047534ba9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd42ef6151e884f64"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0ec120f3f0e493b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re0c89794c6554809"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R35acb9fc35164c57"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rfcdb220720894bde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R935111832ba94175"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2327773a2194910"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R08d3cb9c64e04fb1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5eeb42e047534ba9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R52afcf5d06ca4476"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0ec120f3f0e493b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8abc4f6b187d4af0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R35acb9fc35164c57"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19bb872656664dc5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R935111832ba94175"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R29acdf3e4ada4b04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R08d3cb9c64e04fb1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfea0302d8d324b44"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R52afcf5d06ca4476"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2287dc9c7e764909"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8abc4f6b187d4af0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6210ce59aecb414f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19bb872656664dc5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8ebfad4a8d9247ed"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R29acdf3e4ada4b04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rac1920c2f29d4cbf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfea0302d8d324b44"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R404f6e84eb9f4a98"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2287dc9c7e764909"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6222cbd48e624fe2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6210ce59aecb414f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc9e1051694d421b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8ebfad4a8d9247ed"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c2b1011042044d5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rac1920c2f29d4cbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Re3859e8f0c764601"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R404f6e84eb9f4a98"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9cbc79660f264067"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6222cbd48e624fe2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5139aa98a7d24af6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdc9e1051694d421b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3623e475d8f640e8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c2b1011042044d5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe9e994a9887450a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Re3859e8f0c764601"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rf0ad6b38e44244fe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9cbc79660f264067"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd71a9e81e74f4a65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5139aa98a7d24af6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R890c7f2b2e4e4def"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3623e475d8f640e8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99ec08268cbd4c07"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfe9e994a9887450a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rebf4785c704746d1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/053_ChartFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="Rf0ad6b38e44244fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quarterly Data" sheetId="1" r:id="R25181bc99d31437e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd71a9e81e74f4a65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb175ae6b7be8478c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R890c7f2b2e4e4def"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R388be4e49c74406d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -457,7 +457,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99ec08268cbd4c07"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcbef7f3a838648ce"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -549,6 +549,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rebf4785c704746d1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R680405aa5b644e9b"/>
 </x:worksheet>
 </file>